--- a/articles.xlsx
+++ b/articles.xlsx
@@ -446,220 +446,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>구름 사이 '휘영청' 추석 보름달, 가장 높게 뜨는 시각은?</t>
+          <t>추석 다음날 아침 귀경길 고속도로 원활…부산→서울 5시간10분</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://biz.chosun.com/site/data/html_dir/2020/10/01/2020100100136.html?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
+          <t>http://yna.kr/AKR20201002014100004?did=1195m</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>조선비즈</t>
+          <t>연합뉴스</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F366%2F2020%2F10%2F01%2F597996.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F001%2F2020%2F10%2F02%2F11917328.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이낙연 대표, 추석 맞아 고 노무현 대통령 묘소 참배</t>
+          <t>코로나 신규 확진자 63명, 추석 연휴 이틀 연속 두자릿 수</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://imnews.imbc.com/news/2020/politics/article/5927450_32626.html</t>
+          <t>https://www.sedaily.com/NewsView/1Z8Z4PXFFD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MBC</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F214%2F2020%2F10%2F01%2F1069716.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F011%2F2020%2F10%2F02%2F3805399.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'추석 특수' 누린 한우·삼겹살…소비자가격 고공행진</t>
+          <t>추석연휴에도 산발적 감염…코로나19 확산세 여전</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://imnews.imbc.com/news/2020/econo/article/5927149_32647.html</t>
+          <t>http://www.segye.com/content/html/2020/10/02/20201002505790.html?OutUrl=naver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MBC</t>
+          <t>세계일보</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F214%2F2020%2F10%2F01%2F1069669.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F022%2F2020%2F10%2F02%2F3508697.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>추미애·조국, 추석날 주거니받거니 “일부 정치검찰 정권과 결탁”</t>
+          <t>[속보] 코로나 신규 확진자 63명…추석 연휴 이후가 변곡점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.chosun.com/national/national_general/2020/10/01/7BNGFKXKWZELRL2OONEPG2TKCU/?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=news</t>
+          <t>http://www.hani.co.kr/arti/society/health/964213.html</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>한겨레</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F023%2F2020%2F10%2F01%2F3565742.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F028%2F2020%2F10%2F02%2F2514829.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>추석날 고속도로 오후 1~2시 정체 극심…“오후 10시쯤 해소 전망”</t>
+          <t>구름 사이 '휘영청' 추석 보름달, 가장 높게 뜨는 시각은?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://news.kbs.co.kr/news/view.do?ncd=5016431&amp;ref=A</t>
+          <t>https://biz.chosun.com/site/data/html_dir/2020/10/01/2020100100136.html?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>KBS</t>
+          <t>조선비즈</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F056%2F2020%2F10%2F01%2F10909649.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F366%2F2020%2F10%2F01%2F597996.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>추석날 40대 아들과 모친 피 흘리며 숨져…집에서 흉기 발견</t>
+          <t>이낙연 대표, 추석 맞아 고 노무현 대통령 묘소 참배</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://yna.kr/AKR20201001029500060?did=1195m</t>
+          <t>https://imnews.imbc.com/news/2020/politics/article/5927450_32626.html</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>연합뉴스</t>
+          <t>MBC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F001%2F2020%2F10%2F01%2F11916959.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F214%2F2020%2F10%2F01%2F1069716.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>추석 당일 고속도로 곳곳 정체…귀경길 오후 3~4시 절정</t>
+          <t>추미애·조국, 추석날 주거니받거니 “일부 정치검찰 정권과 결탁”</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://news.tvchosun.com/site/data/html_dir/2020/10/01/2020100190007.html</t>
+          <t>https://www.chosun.com/national/national_general/2020/10/01/7BNGFKXKWZELRL2OONEPG2TKCU/?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=news</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TV조선</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F448%2F2020%2F10%2F01%2F308107.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F023%2F2020%2F10%2F01%2F3565742.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>추석 연휴 첫날, 길 건너던 6세 승합차에 치여 중상</t>
+          <t>'추석 특수' 누린 한우·삼겹살…소비자가격 고공행진</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.wowtv.co.kr/NewsCenter/News/Read?articleId=A202010010049&amp;t=NN</t>
+          <t>https://imnews.imbc.com/news/2020/econo/article/5927149_32647.html</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>한국경제TV</t>
+          <t>MBC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F215%2F2020%2F10%2F01%2F905098.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F214%2F2020%2F10%2F01%2F1069669.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>추석 성묘길 고속도로 본격 정체…서울→부산 6시간50분</t>
+          <t>추석날 고속도로 오후 1~2시 정체 극심…“오후 10시쯤 해소 전망”</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.newsis.com/view/?id=NISX20201001_0001184632&amp;cID=10201&amp;pID=10200</t>
+          <t>http://news.kbs.co.kr/news/view.do?ncd=5016431&amp;ref=A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>뉴시스</t>
+          <t>KBS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F003%2F2020%2F10%2F01%2F10104917.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F056%2F2020%2F10%2F01%2F10909649.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>코로나19 신규 확진 77명…추석 연휴 뒤 재확산 우려</t>
+          <t>엄마는 거리, 아들은 집에서 숨진채 발견…추석날 무슨 일이</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://news.tvchosun.com/site/data/html_dir/2020/10/01/2020100190009.html</t>
+          <t>https://news.joins.com/article/olink/23479326</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TV조선</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F448%2F2020%2F10%2F01%2F308108.jpg&amp;type=ofullfill80_80_q75_re2</t>
+          <t>https://search.pstatic.net/common/?src=https%3A%2F%2Fimgnews.pstatic.net%2Fimage%2Forigin%2F025%2F2020%2F10%2F01%2F3039996.jpg&amp;type=ofullfill80_80_q75_re2</t>
         </is>
       </c>
     </row>
